--- a/medicine/Psychotrope/Brasserie_Van_Roy_Wieze/Brasserie_Van_Roy_Wieze.xlsx
+++ b/medicine/Psychotrope/Brasserie_Van_Roy_Wieze/Brasserie_Van_Roy_Wieze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Van Roy (renommée Brasserie Het Anker Wieze en 1997) était une brasserie située à Wieze dans la province de Flandre-Orientale, fondée en 1866 et fermée en 1997.
@@ -514,56 +526,209 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation
-En 1866, Pieter Jozef Van Roy, agriculteur, fonde une brasserie comme la région en compta beaucoup. Ainsi, à Wieze, on trouvait également les brasseries Callebaut (1850-1976), Van Langenhove et Wagon (1899-1950). Ces brasseries écoulaient principalement leur production en vente directe (en futs pour les tavernes et en bouteilles avec bouchon à muselière pour les particuliers)[1].
-Développement
-En 1907, c'est son fils Raymond qui prend la relève et devient également bourgmestre de Wieze. Malgré l'impact des deux guerres mondiales (réquisition du cuivre des cuves durant la première et indisponibilité des matières premières durant la seconde), il développe l'activité de l'entreprise. Son frère Arthur se marie à Henriette De Mesmaecker et devient maitre brasseur de la brasserie de Hoorn, qui deviendra la brasserie Palm[2].
-En 1952, suite au décès de leur père Raymond, Jan et Willy Van Roy reprennent le flambeau et se mettent à fabriquer une pils afin de suivre la tendance. Au plus fort de l'activité, la brasserie emploie 370 personnes et produit 120.000 hectolitres par an, notamment des bières « à façon » en marque de distributeur (Cara pils, GB-Pils...)[3]
-Oktoberfeesten
-En 1956, la brasserie décide d'organiser un événement inspiré des fêtes de la bière munichoise (Oktoberfest). 
-La première édition dure 9 jours et rassemble 30.000 visiteurs. Forte de ce succès, la brasserie fait construire une salle de 4 800 m2, utilisée dès l'édition de 1957. Cette salle sera agrandie en 1965 et 1966. La fréquentation culminera aux alentours de 300.000 visiteurs pour des festivités étalées sur une période de 2 semaines[4].
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1866, Pieter Jozef Van Roy, agriculteur, fonde une brasserie comme la région en compta beaucoup. Ainsi, à Wieze, on trouvait également les brasseries Callebaut (1850-1976), Van Langenhove et Wagon (1899-1950). Ces brasseries écoulaient principalement leur production en vente directe (en futs pour les tavernes et en bouteilles avec bouchon à muselière pour les particuliers).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1907, c'est son fils Raymond qui prend la relève et devient également bourgmestre de Wieze. Malgré l'impact des deux guerres mondiales (réquisition du cuivre des cuves durant la première et indisponibilité des matières premières durant la seconde), il développe l'activité de l'entreprise. Son frère Arthur se marie à Henriette De Mesmaecker et devient maitre brasseur de la brasserie de Hoorn, qui deviendra la brasserie Palm.
+En 1952, suite au décès de leur père Raymond, Jan et Willy Van Roy reprennent le flambeau et se mettent à fabriquer une pils afin de suivre la tendance. Au plus fort de l'activité, la brasserie emploie 370 personnes et produit 120.000 hectolitres par an, notamment des bières « à façon » en marque de distributeur (Cara pils, GB-Pils...)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Oktoberfeesten</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, la brasserie décide d'organiser un événement inspiré des fêtes de la bière munichoise (Oktoberfest). 
+La première édition dure 9 jours et rassemble 30.000 visiteurs. Forte de ce succès, la brasserie fait construire une salle de 4 800 m2, utilisée dès l'édition de 1957. Cette salle sera agrandie en 1965 et 1966. La fréquentation culminera aux alentours de 300.000 visiteurs pour des festivités étalées sur une période de 2 semaines.
 La dernière édition sous la houlette de la brasserie Van Roy se tient en 1987. 
-L'évènement renait en 2018, la salle étant entretemps devenue une entreprise indépendante sous le nom d'Oktoberhallen. L'événement, qui attire quelques milliers de personnes sur deux jours, est annulé en 2020 (en raison du Covid-19) et en 2023 (faute d'un nombre suffisant de préventes)[5].
-Difficultés
-Au début des années 1990, la brasserie fait face aux difficultés que rencontre l'ensemble d'un secteur en contraction. Par rapport aux deux plus grands brasseurs du pays (Stella Artois et Piedbœuf) qui brassent plus de 2.000.000 d'hectolitres annuels chacun, La brasserie Van Roy est un petit acteur qui a beaucoup de mal à conserver son réseau de distribution et la fusion de ces deux géants (ainsi que celle d'Alken et de Maes) couplée à de nombreuses absorptions n'arrange rien. 
+L'évènement renait en 2018, la salle étant entretemps devenue une entreprise indépendante sous le nom d'Oktoberhallen. L'événement, qui attire quelques milliers de personnes sur deux jours, est annulé en 2020 (en raison du Covid-19) et en 2023 (faute d'un nombre suffisant de préventes).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Difficultés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 1990, la brasserie fait face aux difficultés que rencontre l'ensemble d'un secteur en contraction. Par rapport aux deux plus grands brasseurs du pays (Stella Artois et Piedbœuf) qui brassent plus de 2.000.000 d'hectolitres annuels chacun, La brasserie Van Roy est un petit acteur qui a beaucoup de mal à conserver son réseau de distribution et la fusion de ces deux géants (ainsi que celle d'Alken et de Maes) couplée à de nombreuses absorptions n'arrange rien. 
 Parallèlement, la grande distribution - confrontée à la monté en puissance du hard-discount - comprime ses marges et finit par relocaliser ses contrats sous marque de distributeur auprès de brasseries plus grandes, capables de proposer de meilleurs prix. En 1994, la brasserie Van Roy est une première fois déclarée en faillite. 
-Derniers soubresauts et renaissance
-Immédiatement, une nouvelle entreprise Wieze Het Anker est mise sur pied avec des ambitions réduite : une cinquantaine de salariés et une production espérée de 30.000 hectolitres. L'aventure ne durera que 3 ans. C'est alors la brasserie de Haacht qui rachète le solde des actifs, dont les contrats en cours et les marques. Les bâtiments sont cédés à un investisseur immobilier qui les démantèle en 2001[6]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Derniers soubresauts et renaissance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Immédiatement, une nouvelle entreprise Wieze Het Anker est mise sur pied avec des ambitions réduite : une cinquantaine de salariés et une production espérée de 30.000 hectolitres. L'aventure ne durera que 3 ans. C'est alors la brasserie de Haacht qui rachète le solde des actifs, dont les contrats en cours et les marques. Les bâtiments sont cédés à un investisseur immobilier qui les démantèle en 2001. 
 Une nouvelle brasserie Wieze (brouwerij Wieze) est créée en 2009 par Ronny De Wolf. Il a racheté la marque et son logo à la brasserie de Haacht. Les infrastructures et la production sont plus confidentielles (quelques milliers d'hectolitres par an). L'aventure se termine déjà en 2013.  
 La marque est alors rachetée par Wieze Beer Belgium qui fait brasser une triple dès 2014, dans un premier temps par la brasserie Roman. En 2017, c'est au tour de la brasserie De Brabandere de s'y associer. C'est ce duo qui est à l'origine du projet de relance de l'Oktoberfeest à Wieze en 2018. 
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Brasserie_Van_Roy_Wieze</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Brasserie Van Roy[7]
-En marque propre
-Anker
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brasserie Van Roy[7]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>En marque propre</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Anker
 Pale Ale Van Roy
 Royal Type
 Scotch 1866
@@ -575,9 +740,47 @@
 Wieze Faro
 Wieze Kriek
 Wieze Pils
-Wieze Salvator
-À façon
-Cara Pils
+Wieze Salvator</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Brasserie Van Roy[7]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>À façon</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cara Pils
 Class Pils
 Dorp Pils
 Frissing Pils
@@ -592,31 +795,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Brasserie_Van_Roy_Wieze</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brasserie_Van_Roy_Wieze</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Wieze Beer Belgium</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Wieze Triple (nl) - Blonde, 8%
 Wieze Triple - Brune sucrée, 8%
